--- a/ExcelToJson/Sample/excel/Item.xlsx
+++ b/ExcelToJson/Sample/excel/Item.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561F262E-380B-49B2-A62D-DD149BBBF80A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717949B1-5BE2-465E-A667-EE8506544F04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5685" yWindow="885" windowWidth="31635" windowHeight="13665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="27931" windowHeight="16395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="469">
   <si>
     <t>ItemId</t>
   </si>
@@ -113,13 +113,1635 @@
   <si>
     <t>版本号跟Sheet1一致</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collection</t>
+  </si>
+  <si>
+    <t>Ct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小行李箱</t>
+  </si>
+  <si>
+    <t>安娜的小行李箱，似乎在晃动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢笔</t>
+  </si>
+  <si>
+    <t>丹尼尔老师的精致钢笔。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级名册</t>
+  </si>
+  <si>
+    <t>格林德沃新一期班级成员的名册。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶奶的推荐信</t>
+  </si>
+  <si>
+    <t>奶奶为你写的格林德沃的推荐信。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鱼干</t>
+  </si>
+  <si>
+    <t>风干的小鱼干，并没有咸味。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格林德沃的邀请函</t>
+  </si>
+  <si>
+    <t>格林德沃发给入学新生的邀请函。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《感知万物》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教授感知魔法基础的魔法书。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《解剖空间》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教授空间魔法基础的魔法书。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《未来的奥秘》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教授占卜术基础的魔法书。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《虚构形体》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教授变形术基础的魔法书。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《黄金练成》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教授炼金术基础的魔法书。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法师的必修课</t>
+  </si>
+  <si>
+    <t>魔法师的基础必修课程，是成为魔法学徒的证明。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手表</t>
+  </si>
+  <si>
+    <t>丹尼尔老师的精致手表，平时从不离身。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱包</t>
+  </si>
+  <si>
+    <t>丹尼尔老师的钱包，里面的钱还在。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正装衣服</t>
+  </si>
+  <si>
+    <t>丹尼尔老师的正装衣服，上面并没有破损。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梳子</t>
+  </si>
+  <si>
+    <t>丹尼尔老师的梳子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香烟</t>
+  </si>
+  <si>
+    <t>丹尼尔老师的香烟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柜子钥匙</t>
+  </si>
+  <si>
+    <t>丹尼尔老师私人柜子的钥匙。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知书</t>
+  </si>
+  <si>
+    <t>格林德沃的旧版录取通知书。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校服外套</t>
+  </si>
+  <si>
+    <t>格林德沃的新生校服外套。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印机</t>
+  </si>
+  <si>
+    <t>丹尼尔工作用的打字机，里面写的东西被抹掉了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包</t>
+  </si>
+  <si>
+    <t>一个普通的背包，被放在传送阵里。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶矿石</t>
+  </si>
+  <si>
+    <t>可以快速使用一次强力空间魔法的昂贵莫非材料。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮灵</t>
+  </si>
+  <si>
+    <t>灵魂的实体残渣。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜子</t>
+  </si>
+  <si>
+    <t>一面普通的小镜子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潦草的笔记</t>
+  </si>
+  <si>
+    <t>一张写着传送门有关的信息的小纸条。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手帕</t>
+  </si>
+  <si>
+    <t>一块普通的手帕。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送门的符文</t>
+  </si>
+  <si>
+    <t>可以开启传送法阵的符文石。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首饰盒子</t>
+  </si>
+  <si>
+    <t>存放首饰的小盒子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红宝石之心</t>
+  </si>
+  <si>
+    <t>一块心形的红宝石。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红宝石的记忆</t>
+  </si>
+  <si>
+    <t>菲娜用红宝石之心引导出的记忆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丹尼尔的记忆碎片1</t>
+  </si>
+  <si>
+    <t>丹尼尔被红宝石之心引导出的记忆碎片。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丹尼尔的记忆碎片2</t>
+  </si>
+  <si>
+    <t>丹尼尔的记忆碎片3</t>
+  </si>
+  <si>
+    <t>丹尼尔的记忆碎片4</t>
+  </si>
+  <si>
+    <t>丹尼尔的记忆</t>
+  </si>
+  <si>
+    <t>丹尼尔被红宝石之心引导出的记忆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证实灵魂存在的新闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报道证实灵魂存在回忆内容的新闻报纸。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫眼</t>
+  </si>
+  <si>
+    <t>传说猫可以看见人类的灵魂。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>催眠怀表</t>
+  </si>
+  <si>
+    <t>用于催眠的小怀表，有着长长的锁链。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂</t>
+  </si>
+  <si>
+    <t>人类的灵魂。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言护符</t>
+  </si>
+  <si>
+    <t>菲娜日常佩戴的护符，可以让动物与人类交流。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《记忆读取术》</t>
+  </si>
+  <si>
+    <t>埃玛发明的读取记忆的法术，需要没有意识反抗才能使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子符文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印有狮子座图形的护符。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双鱼符文</t>
+  </si>
+  <si>
+    <t>印有双鱼座图形的护符。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天蝎符文</t>
+  </si>
+  <si>
+    <t>印有天蝎座图形的护符。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金牛符文</t>
+  </si>
+  <si>
+    <t>印有金牛座图形的护符。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射手符文</t>
+  </si>
+  <si>
+    <t>印有射手座图形的护符。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天秤符文</t>
+  </si>
+  <si>
+    <t>印有天秤座图形的护符。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫头鹰奖章</t>
+  </si>
+  <si>
+    <t>格林德沃的刻有猫头鹰像的奖章，代表学识。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫眼奖章</t>
+  </si>
+  <si>
+    <t>格林德沃的刻有猫眼像的奖章，代表智慧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衔尾蛇奖章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格林德沃的刻有衔尾蛇像的奖章，代表传承。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔罗牌</t>
+  </si>
+  <si>
+    <t>玛丽安所使用的塔罗牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫师魔杖</t>
+  </si>
+  <si>
+    <t>巫师使用的魔杖。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校校徽</t>
+  </si>
+  <si>
+    <t>格林德沃的学校校徽。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《语言的力量》</t>
+  </si>
+  <si>
+    <t>教授魔咒基础的魔法书。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《魔法的历史》</t>
+  </si>
+  <si>
+    <t>教授魔法历史基础的魔法书。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《神奇的动物们》</t>
+  </si>
+  <si>
+    <t>教授魔法生物学基础的魔法书。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《世界的异变》</t>
+  </si>
+  <si>
+    <t>教授异像的魔法书。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《隐形兽的踪迹》</t>
+  </si>
+  <si>
+    <t>讲解隐形兽生态与寻找隐形兽手段的书。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《异像防御学》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教授对抗异像手段的书籍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铲子</t>
+  </si>
+  <si>
+    <t>anomalies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草药</t>
+  </si>
+  <si>
+    <t>乌鸦村沼泽特产的草药，在当地产量很高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌鸦</t>
+  </si>
+  <si>
+    <t>乌鸦村特有的乌鸦，胆子非常大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女巫的护符</t>
+  </si>
+  <si>
+    <t>雕刻着奇怪表情的木牌项链。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女巫的药剂</t>
+  </si>
+  <si>
+    <t>女巫制作的药剂，性质十分的热烈。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊皮纸记录</t>
+  </si>
+  <si>
+    <t>羊皮纸上记录的乌鸦村的天气情况。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成熟的葡萄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一串完全成熟的葡萄，个头非常大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿松石手镯</t>
+  </si>
+  <si>
+    <t>串着许多绿松石的手镯，是埃米莉雅奶奶的遗物。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被打扮的乌鸦</t>
+  </si>
+  <si>
+    <t>埃米莉雅饲养的乌鸦，身上绑着蝴蝶结。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女巫的记录</t>
+  </si>
+  <si>
+    <t>记录着乌鸦村历代女巫名单的本子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用各种草药混合而成的香丸，散发着淡淡的香气。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编制的鸟笼</t>
+  </si>
+  <si>
+    <t>用树枝编制的简易鸟笼。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡蛋</t>
+  </si>
+  <si>
+    <t>普通的乡村鸡蛋，在乌鸦村可以作为女巫的报酬。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干燥的草药</t>
+  </si>
+  <si>
+    <t>被晒干保存的草药。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥利弗的狗</t>
+  </si>
+  <si>
+    <t>奥利弗养的土狗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女巫的长袍</t>
+  </si>
+  <si>
+    <t>女巫穿着的粗糙长袍，能看出明显的女性特质。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散装的药物</t>
+  </si>
+  <si>
+    <t>散装的药物，被分成了许多份。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶杯</t>
+  </si>
+  <si>
+    <t>巫师使用的粗糙茶杯，里面有一些茶叶渣。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸽子</t>
+  </si>
+  <si>
+    <t>巫师变出的鸽子，不知道它们被养在哪里。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去山顶的地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从村里通向巫师的住所的山路路线图。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸铁的铲子，有些重。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指南针</t>
+  </si>
+  <si>
+    <t>随身携带的指南针。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淤泥</t>
+  </si>
+  <si>
+    <t>从塌方的道路上挖出的淤泥。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木棍</t>
+  </si>
+  <si>
+    <t>结实的木棍，用来撬动巨石。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大石块</t>
+  </si>
+  <si>
+    <t>因塌方而落在路上的大石块。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌鸦攻击</t>
+  </si>
+  <si>
+    <t>乌鸦的攻击，令每个被攻击的人都印象深刻。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伐木斧</t>
+  </si>
+  <si>
+    <t>用于伐木的乡村斧子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木桩</t>
+  </si>
+  <si>
+    <t>被砍伐下的木桩，用于制作栅栏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>削尖的木桩</t>
+  </si>
+  <si>
+    <t>底部被削尖的木桩，用于制作栅栏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草绳</t>
+  </si>
+  <si>
+    <t>用稻草编制的草绳，很结实但容易腐烂。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木桩栅栏</t>
+  </si>
+  <si>
+    <t>在木桩上绑上草绳制成的栅栏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕麦</t>
+  </si>
+  <si>
+    <t>一种廉价的谷物。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕麦粥</t>
+  </si>
+  <si>
+    <t>用燕麦制作的粥，是乡下人的主食。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧的蜡烛</t>
+  </si>
+  <si>
+    <t>正在燃烧的廉价蜡烛。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空的被子</t>
+  </si>
+  <si>
+    <t>空的被子，埃米莉雅不在里面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗边的脚印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗边的脚印，脚印是朝外的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃米莉雅</t>
+  </si>
+  <si>
+    <t>乌鸦村村长的孙女。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫师魔法书</t>
+  </si>
+  <si>
+    <t>巫师的魔法师，里面可能记载着很多魔法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石堆</t>
+  </si>
+  <si>
+    <t>用石头垒砌的简易石堆，用来做路标。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草丛</t>
+  </si>
+  <si>
+    <t>可以戴在头上的一堆草丛，用来隐藏自己。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓑衣</t>
+  </si>
+  <si>
+    <t>用草编制的简易衣服，可以抵挡乌鸦的攻击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑麦麦粒</t>
+  </si>
+  <si>
+    <t>黑麦的麦粒，乌鸦很喜欢吃。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴维</t>
+  </si>
+  <si>
+    <t>乌鸦村现任的巫师，也是历代女巫中唯一的男性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤蔓戒指</t>
+  </si>
+  <si>
+    <t>用藤蔓编制的简易戒指，上面有一朵花，不过已经完全干枯了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命之花</t>
+  </si>
+  <si>
+    <t>与女巫生命相连的花朵，被放在玻璃瓶中，已经完全枯萎了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《女巫之锤》</t>
+  </si>
+  <si>
+    <t>曾经盛行一时的猎巫运动的行动纲领。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇怪文字的卷轴</t>
+  </si>
+  <si>
+    <t>写有奇怪象形文字的卷轴，上面的文字与奶奶留下的文件是同一种文字。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽毛项链</t>
+  </si>
+  <si>
+    <t>边缘带有各色羽毛的项链，是女巫喜欢的装饰品。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带照片的项链</t>
+  </si>
+  <si>
+    <t>中间带有女巫蕾娜塔照片的吊坠。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>村长的告示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>村长发布的关于女巫蕾娜塔失踪的告示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女巫的帽子</t>
+  </si>
+  <si>
+    <t>女巫的大帽子，充满异端的气息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被毁坏的栈道</t>
+  </si>
+  <si>
+    <t>被毁坏的木质栈道，这是原本通向沼泽的唯一通道。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药剂师的背包</t>
+  </si>
+  <si>
+    <t>药剂师的大背包，里面有很多草药。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩陶塑像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精致的彩陶塑像。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蕾娜塔的信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女巫蕾娜塔离开时留下了信件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符文石块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在石头上雕刻的简易符文。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜币</t>
+  </si>
+  <si>
+    <t>最小面值的铜制硬币。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白面包</t>
+  </si>
+  <si>
+    <t>精面制作的白面包。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马戏团的广告</t>
+  </si>
+  <si>
+    <t>马戏团发布的广告传单。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌鸦魔术的新闻</t>
+  </si>
+  <si>
+    <t>报纸上记录的马戏团乌鸦表演的新闻。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马戏团的招聘书</t>
+  </si>
+  <si>
+    <t>马戏团老板给蕾娜塔的招聘书，上面签了一个很不错的价格。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌鸦巢</t>
+  </si>
+  <si>
+    <t>巫师小屋周围的乌鸦巢。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稻草堆</t>
+  </si>
+  <si>
+    <t>一堆稻草，上面铺着一张布，是一个简易的床铺。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蕾娜塔的木雕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用木头制作的蕾娜塔的木雕，手法很粗糙，并不怎么像。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔脚护符</t>
+  </si>
+  <si>
+    <t>用兔脚制作的护符，是女巫的传统装备。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半成品符文石</t>
+  </si>
+  <si>
+    <t>雕刻一半的符文石，似乎有一些魔力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕梦网</t>
+  </si>
+  <si>
+    <t>使用了乌鸦羽毛的捕梦网。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳄鱼出没</t>
+  </si>
+  <si>
+    <t>村长发布的关于沼泽中有鳄鱼出没的传单。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳄鱼</t>
+  </si>
+  <si>
+    <t>潜伏在沼泽中的鳄鱼，之漏出了脸。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山羊</t>
+  </si>
+  <si>
+    <t>在沼泽中放牧的山羊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔网</t>
+  </si>
+  <si>
+    <t>兼顾的渔网。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼叉</t>
+  </si>
+  <si>
+    <t>锋利的鱼叉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套索</t>
+  </si>
+  <si>
+    <t>用来将鳄鱼拉出来的套索。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沼泽地图</t>
+  </si>
+  <si>
+    <t>沼泽地的地图。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨大的毒蘑菇</t>
+  </si>
+  <si>
+    <t>一个巨大的毒蘑菇丛，散发着毒气。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口罩</t>
+  </si>
+  <si>
+    <t>简易的口罩，可以驱散毒气。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳄鱼巢</t>
+  </si>
+  <si>
+    <t>鳄鱼的巢，里面有几个损毁的鳄鱼蛋。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐坏的蛋</t>
+  </si>
+  <si>
+    <t>已经破损的蛋，已经腐坏了，显然没有孵化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火把</t>
+  </si>
+  <si>
+    <t>用树脂布条和油脂制作的简易的火把。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜻蜓</t>
+  </si>
+  <si>
+    <t>一只普通的蜻蜓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝蜻蜓</t>
+  </si>
+  <si>
+    <t>一只蓝色蜻蜓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红蜻蜓</t>
+  </si>
+  <si>
+    <t>一只红色的蜻蜓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龟子</t>
+  </si>
+  <si>
+    <t>一只金龟子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萤火虫</t>
+  </si>
+  <si>
+    <t>一只萤火虫。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女巫的灵魂</t>
+  </si>
+  <si>
+    <t>女巫蕾娜塔的灵魂。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刻有文字的石板碎片1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一块刻有符文文字的石板碎片。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刻有文字的石板碎片2</t>
+  </si>
+  <si>
+    <t>刻有文字的石板碎片3</t>
+  </si>
+  <si>
+    <t>刻有文字的石板碎片4</t>
+  </si>
+  <si>
+    <t>石质基座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石质的基座，上面可以放置石板。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刻有咒语的石碑</t>
+  </si>
+  <si>
+    <t>刻有一段咒语的石碑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发光的石碑</t>
+  </si>
+  <si>
+    <t>正在发光的石碑，上面产生了魔法共鸣。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蕾娜塔的记忆碎片1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蕾娜塔的模糊的记忆碎片。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蕾娜塔的记忆碎片2</t>
+  </si>
+  <si>
+    <t>蕾娜塔的记忆碎片3</t>
+  </si>
+  <si>
+    <t>蕾娜塔的记忆碎片4</t>
+  </si>
+  <si>
+    <t>蕾娜塔的记忆</t>
+  </si>
+  <si>
+    <t>蕾娜塔的模糊的记忆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《杂谈灵异事件簿》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记载着世界各地的怪异事件的书。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《狂想者的异闻录》</t>
+  </si>
+  <si>
+    <t>一位疯狂魔法师的见闻录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《异象大全》</t>
+  </si>
+  <si>
+    <t>较为专业的记载各地奇异现象的书本。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《在生命的边缘》</t>
+  </si>
+  <si>
+    <t>记录各地的人在生命垂危时遇到清醒灵魂的记录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《迷失之人》</t>
+  </si>
+  <si>
+    <t>记录一位魔法师遇到清醒灵魂的事件纪实。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《实用法阵建造》</t>
+  </si>
+  <si>
+    <t>用于建造各种法阵的使用书籍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>artifacts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命之心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说中拥有生命的宝石，可以为保护主人而献出自己的生命。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影子之书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追随魔法师终身的魔导书，记录着主人对魔法研究的所有成果，在主人魔力的感染下有了自己意识。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力装置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以把魔力转换为动能的神奇装置，原理还不清楚。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣骑士之盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣骑士中的英雄人物所用的骑士盾，雕刻有圣人布道的场景，拥有强大的守护力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣骑士之剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣骑士中的英雄人物所用的骑士剑，只能为守护弱小而挥舞。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僭越者的王冠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僭越者私自制造的虚伪王冠，拥有改变人心智的力量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌装置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意义不明的奇怪装置，可以安装在任何机械上，拥有无尽的可能性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界树之种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极东之地世界树的树种，成熟的世界树据说可以连接天界。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚伪的灵魂容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以为灵魂提供庇护的神奇宝盒，甚至可以让灵魂放弃对肉身的需要。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯洁之王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至高的纯洁白王，拥有护佑主人在棋局中胜利的能力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rop</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monsters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy|En</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy|Ex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy|Dr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy|Co</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫眼拼图门票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入猫眼拼图玩法所需的门票，每进行一次该玩法，需要消耗一定数量的门票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格林德沃门票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入格林德沃地区所需的门票，每进入一次该地区的战斗场景，需要消耗一定数量的门票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红枫镇门票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入伦敦城地区所需的门票，每进入一次该地区的战斗场景，需要消耗一定数量的门票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白糖堡门票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入白糖堡地区所需的门票，每进入一次该地区的战斗场景，需要消耗一定数量的门票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌鸦村门票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入乌鸦村地区所需的门票，每进入一次该地区的战斗场景，需要消耗一定数量的门票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贤者之居门票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入贤者之居地区所需的门票，每进入一次该地区的战斗场景，需要消耗一定数量的门票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个美味多汁的苹果能回复30点体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新鲜橙汁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新鲜的杯装橙汁能回复50点体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊角面包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一块羊角面包能回复100点体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期日烤肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一杯超能饮料能回复150点体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力之源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一杯被魔法加持过的鸡尾酒能回复250点体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天鹅饼干</t>
+  </si>
+  <si>
+    <t>立即恢复35点体力，并且将体力恢复速度提高3倍，持续20分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦糖布丁</t>
+  </si>
+  <si>
+    <t>立即恢复150点体力，并且将体力恢复速度提高3倍，持续30分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红丝绒蛋糕</t>
+  </si>
+  <si>
+    <t>立即恢复280点体力，并且将体力恢复速度提高3倍，持续30分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫头鹰硬币</t>
+  </si>
+  <si>
+    <t>在寻物、小游戏战斗中增加15%经验，持续30分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫头鹰符文</t>
+  </si>
+  <si>
+    <t>将完成一个地区或小游戏时获得的经验值增加100%，使用后消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫头鹰银币</t>
+  </si>
+  <si>
+    <t>在寻物、小游戏战斗中增加20%经验，持续90分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫头鹰金币</t>
+  </si>
+  <si>
+    <t>在寻物、小游戏战斗中增加100%经验，持续90分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫眼硬币</t>
+  </si>
+  <si>
+    <t>在寻物、小游戏后找到奖励物品的几率+10%，持续30分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫眼符文</t>
+  </si>
+  <si>
+    <t>在完成单一寻物或小游戏时，找到奖励物品的几率+50%，使用后消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫眼银币</t>
+  </si>
+  <si>
+    <t>在寻物、小游戏后找到奖励物品的几率+30%，持续90分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫眼金币</t>
+  </si>
+  <si>
+    <t>在寻物、小游戏后找到奖励物品的几率+90%，持续120分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衔尾蛇硬币</t>
+  </si>
+  <si>
+    <t>在寻物、小游戏中增加20%金币，持续30分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衔尾蛇银币</t>
+  </si>
+  <si>
+    <t>在寻物、小游戏中增加25%金币，持续90分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衔尾蛇金币</t>
+  </si>
+  <si>
+    <t>在寻物、小游戏中增加100%金币，持续120分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大吉岭红茶</t>
+  </si>
+  <si>
+    <t>3倍增加体力恢复速度，持续30分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿萨姆奶茶</t>
+  </si>
+  <si>
+    <t>5倍增加体力恢复速度，持续90分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伯爵茶</t>
+  </si>
+  <si>
+    <t>10倍增加体力恢复速度，持续120分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛线球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于挑战魔法拼图的道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法药剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向日葵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器面具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法石碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤神龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于召唤异向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Synthesizer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点金手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一双可以点金的手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿宝石凤凰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说中胸镶嵌着绿宝石的凤凰，可以为人类带来好运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七彩花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有七彩花的女人，会变得十分幸福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预言之蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这只古老的蛇，它可以预言一切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼金药水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼金师常备的药水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法圣杯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古老的神器之一，圣杯内拥有可以看到过去的神水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色浆果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说吃下红色浆果可以让人的魔法能力大大提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四叶草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神奇的四叶草可以给人们带来好运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>魔力提灯</t>
+  </si>
+  <si>
+    <t>提高在夜晚模式下的视野外围，持续30秒</t>
+  </si>
+  <si>
+    <t>打火机</t>
+  </si>
+  <si>
+    <t>在黑夜模式下，使用后能为所在地点照明30秒</t>
+  </si>
+  <si>
+    <t>魔法沙漏</t>
+  </si>
+  <si>
+    <t>给你额外的45秒时间探索各个地点和小游戏</t>
+  </si>
+  <si>
+    <t>放大镜</t>
+  </si>
+  <si>
+    <t>它会指引你找到所需的道具</t>
+  </si>
+  <si>
+    <t>解谜魔方</t>
+  </si>
+  <si>
+    <t>魔方可以为你变更出缺失或者变形的文字</t>
+  </si>
+  <si>
+    <t>魔力炸弹</t>
+  </si>
+  <si>
+    <t>快速找到三种物品</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,13 +1756,69 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -152,15 +1830,70 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 5" xfId="2" xr:uid="{2FD21A32-1532-40BC-9BC6-854EDF6505BA}"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -444,13 +2177,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.875" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="15.86328125" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -458,7 +2191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0.01</v>
       </c>
@@ -471,22 +2204,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB7609-7D19-4F64-BA50-4F1203D5A3D0}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:K227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="Q217" sqref="Q217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="25.375" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="18.25" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="20.375" customWidth="1"/>
+    <col min="1" max="1" width="25.3984375" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" customWidth="1"/>
+    <col min="5" max="5" width="18.265625" customWidth="1"/>
+    <col min="6" max="6" width="12.46484375" customWidth="1"/>
+    <col min="7" max="7" width="20.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -509,7 +2242,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -532,7 +2265,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -554,8 +2287,11 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -576,6 +2312,5777 @@
       </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2">
+        <v>19</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2">
+        <v>21</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2">
+        <v>24</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2">
+        <v>25</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2">
+        <v>26</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="2">
+        <v>27</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="2">
+        <v>28</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="2">
+        <v>29</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="2">
+        <v>30</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="2">
+        <v>31</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="2">
+        <v>32</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="2">
+        <v>33</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="2">
+        <v>34</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="2">
+        <v>35</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="2">
+        <v>36</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="2">
+        <v>37</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="2">
+        <v>38</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="2">
+        <v>39</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="2">
+        <v>40</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="2">
+        <v>41</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="2">
+        <v>42</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="2">
+        <v>43</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="2">
+        <v>44</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="2">
+        <v>45</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G49" s="2">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="2">
+        <v>46</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G50" s="2">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="2">
+        <v>47</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G51" s="2">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="2">
+        <v>48</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G52" s="2">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="2">
+        <v>49</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G53" s="2">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="2">
+        <v>50</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G54" s="2">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="2">
+        <v>51</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G55" s="2">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="2">
+        <v>52</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G56" s="2">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="2">
+        <v>53</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G57" s="2">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="2">
+        <v>54</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G58" s="2">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="2">
+        <v>55</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G59" s="2">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="2">
+        <v>56</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="2">
+        <v>57</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G61" s="2">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="2">
+        <v>58</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G62" s="2">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="2">
+        <v>59</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G63" s="2">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="2">
+        <v>60</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G64" s="2">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="2">
+        <v>40001</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G65" s="2">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="2">
+        <v>40002</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G66" s="2">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="2">
+        <v>40003</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G67" s="2">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="2">
+        <v>40004</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G68" s="2">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="2">
+        <v>40005</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G69" s="2">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="2">
+        <v>40006</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G70" s="2">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="2">
+        <v>40007</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G71" s="2">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="2">
+        <v>40008</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G72" s="2">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="2">
+        <v>40009</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G73" s="2">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="2">
+        <v>40010</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G74" s="2">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="2">
+        <v>40011</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G75" s="2">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="2">
+        <v>40012</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G76" s="2">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="2">
+        <v>40013</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G77" s="2">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="2">
+        <v>40014</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G78" s="2">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="2">
+        <v>40015</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G79" s="2">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="2">
+        <v>40016</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G80" s="2">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="2">
+        <v>40017</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G81" s="2">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="2">
+        <v>40018</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G82" s="2">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="2">
+        <v>40019</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G83" s="2">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="2">
+        <v>40020</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G84" s="2">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="2">
+        <v>40021</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G85" s="2">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="2">
+        <v>40022</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G86" s="2">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="2">
+        <v>40023</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G87" s="2">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="2">
+        <v>40024</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88" s="3"/>
+      <c r="E88" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G88" s="2">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="2">
+        <v>40025</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G89" s="2">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="2">
+        <v>40026</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G90" s="2">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="2">
+        <v>40027</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G91" s="2">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="2">
+        <v>40028</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G92" s="2">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" s="2">
+        <v>40029</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G93" s="2">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="2">
+        <v>40030</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G94" s="2">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A95" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" s="2">
+        <v>40031</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G95" s="2">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="2">
+        <v>40032</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G96" s="2">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="2">
+        <v>40033</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G97" s="2">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="2">
+        <v>40034</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G98" s="2">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A99" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="2">
+        <v>40035</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G99" s="2">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="2">
+        <v>40036</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D100" s="3"/>
+      <c r="E100" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G100" s="2">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="2">
+        <v>40037</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G101" s="2">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A102" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="2">
+        <v>40038</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G102" s="2">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" s="2">
+        <v>40039</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G103" s="2">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" s="2">
+        <v>40040</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G104" s="2">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" s="2">
+        <v>40041</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G105" s="2">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" s="2">
+        <v>40042</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D106" s="3"/>
+      <c r="E106" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G106" s="2">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="A107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" s="2">
+        <v>40043</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="G107" s="2">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="A108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" s="2">
+        <v>40044</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G108" s="2">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" s="2">
+        <v>40045</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="G109" s="2">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="A110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" s="2">
+        <v>40046</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G110" s="2">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A111" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" s="2">
+        <v>40047</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="G111" s="2">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A112" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" s="2">
+        <v>40048</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D112" s="3"/>
+      <c r="E112" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G112" s="2">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" s="2">
+        <v>40049</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G113" s="2">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" s="2">
+        <v>40050</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G114" s="2">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" s="2">
+        <v>40051</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G115" s="2">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" s="2">
+        <v>40052</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G116" s="2">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" s="2">
+        <v>40053</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G117" s="2">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A118" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" s="2">
+        <v>40054</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D118" s="3"/>
+      <c r="E118" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G118" s="2">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A119" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" s="2">
+        <v>40055</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G119" s="2">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A120" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" s="2">
+        <v>40056</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G120" s="2">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A121" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" s="2">
+        <v>40057</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G121" s="2">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" s="2">
+        <v>40058</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G122" s="2">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" s="2">
+        <v>40059</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G123" s="2">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="A124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="2">
+        <v>40060</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D124" s="3"/>
+      <c r="E124" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G124" s="2">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A125" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" s="2">
+        <v>40061</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G125" s="2">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A126" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" s="2">
+        <v>40062</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G126" s="2">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="A127" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" s="2">
+        <v>40063</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G127" s="2">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A128" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" s="2">
+        <v>40064</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E128" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="G128" s="2">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A129" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" s="2">
+        <v>40065</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G129" s="2">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A130" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" s="2">
+        <v>40066</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D130" s="3"/>
+      <c r="E130" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="G130" s="2">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A131" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" s="2">
+        <v>40067</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="G131" s="2">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A132" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" s="2">
+        <v>40068</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G132" s="2">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A133" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" s="2">
+        <v>40069</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G133" s="2">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A134" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" s="2">
+        <v>40070</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G134" s="2">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A135" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" s="2">
+        <v>40071</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G135" s="2">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A136" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" s="2">
+        <v>40072</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D136" s="3"/>
+      <c r="E136" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G136" s="2">
+        <v>1</v>
+      </c>
+      <c r="H136">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A137" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" s="2">
+        <v>40073</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E137" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G137" s="2">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A138" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" s="2">
+        <v>40074</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E138" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G138" s="2">
+        <v>1</v>
+      </c>
+      <c r="H138">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A139" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" s="2">
+        <v>40075</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E139" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G139" s="2">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A140" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" s="2">
+        <v>40076</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E140" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G140" s="2">
+        <v>1</v>
+      </c>
+      <c r="H140">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A141" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" s="2">
+        <v>40077</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E141" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="G141" s="2">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A142" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" s="2">
+        <v>40078</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D142" s="3"/>
+      <c r="E142" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="G142" s="2">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A143" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" s="2">
+        <v>40079</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E143" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G143" s="2">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A144" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" s="2">
+        <v>40080</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E144" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G144" s="2">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A145" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" s="2">
+        <v>40081</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E145" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G145" s="2">
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A146" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" s="2">
+        <v>40082</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E146" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G146" s="2">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A147" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" s="2">
+        <v>40083</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E147" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G147" s="2">
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A148" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" s="2">
+        <v>40084</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D148" s="3"/>
+      <c r="E148" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G148" s="2">
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A149" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149" s="2">
+        <v>40085</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E149" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="G149" s="2">
+        <v>1</v>
+      </c>
+      <c r="H149">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A150" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" s="2">
+        <v>40086</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E150" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="G150" s="2">
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A151" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" s="2">
+        <v>40087</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="G151" s="2">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A152" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" s="2">
+        <v>40088</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E152" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="G152" s="2">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A153" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" s="2">
+        <v>40089</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E153" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="G153" s="2">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A154" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" s="2">
+        <v>40090</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D154" s="3"/>
+      <c r="E154" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G154" s="2">
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A155" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" s="2">
+        <v>40091</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E155" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="G155" s="2">
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A156" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156" s="2">
+        <v>40092</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E156" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G156" s="2">
+        <v>1</v>
+      </c>
+      <c r="H156">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A157" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" s="2">
+        <v>40093</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E157" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G157" s="2">
+        <v>1</v>
+      </c>
+      <c r="H157">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A158" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" s="2">
+        <v>40094</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E158" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G158" s="2">
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A159" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" s="2">
+        <v>40095</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E159" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G159" s="2">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A160" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" s="2">
+        <v>40096</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D160" s="3"/>
+      <c r="E160" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="G160" s="2">
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A161" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" s="2">
+        <v>40097</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E161" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="G161" s="2">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A162" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162" s="2">
+        <v>40098</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E162" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="G162" s="2">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A163" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B163" s="2">
+        <v>40099</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E163" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="G163" s="2">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A164" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" s="2">
+        <v>40100</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E164" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="G164" s="2">
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A165" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165" s="2">
+        <v>40101</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E165" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G165" s="2">
+        <v>1</v>
+      </c>
+      <c r="H165">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A166" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" s="2">
+        <v>40102</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E166" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G166" s="2">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="A167" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" s="2">
+        <v>50001</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="F167" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="G167" s="2">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="111" x14ac:dyDescent="0.4">
+      <c r="A168" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" s="2">
+        <v>50002</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E168" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="F168" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="G168" s="2">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A169" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" s="2">
+        <v>50003</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E169" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="F169" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="G169" s="2">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="A170" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170" s="2">
+        <v>50004</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E170" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="F170" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="G170" s="2">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="A171" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" s="2">
+        <v>50005</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E171" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="F171" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="G171" s="2">
+        <v>1</v>
+      </c>
+      <c r="H171">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="A172" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" s="2">
+        <v>50006</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E172" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="F172" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="G172" s="2">
+        <v>1</v>
+      </c>
+      <c r="H172">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="A173" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B173" s="2">
+        <v>50007</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E173" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="F173" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="G173" s="2">
+        <v>1</v>
+      </c>
+      <c r="H173">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="69.400000000000006" x14ac:dyDescent="0.4">
+      <c r="A174" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" s="2">
+        <v>50008</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E174" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="F174" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="G174" s="2">
+        <v>1</v>
+      </c>
+      <c r="H174">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="83.25" x14ac:dyDescent="0.4">
+      <c r="A175" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175" s="2">
+        <v>50009</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E175" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="F175" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G175" s="2">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A176" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" s="2">
+        <v>50010</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E176" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="F176" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="G176" s="2">
+        <v>1</v>
+      </c>
+      <c r="H176">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A177" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B177" s="2">
+        <v>20001</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="E177" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="G177" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A178" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178" s="2">
+        <v>20002</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="E178" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="G178" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A179" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B179" s="2">
+        <v>20003</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="E179" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G179" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A180" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180" s="2">
+        <v>20004</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="E180" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="G180" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A181" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B181" s="2">
+        <v>20005</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="E181" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="G181" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A182" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B182" s="2">
+        <v>20006</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="E182" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="G182" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A183" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B183" s="2">
+        <v>20007</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E183" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="F183" t="s">
+        <v>384</v>
+      </c>
+      <c r="G183" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A184" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B184" s="2">
+        <v>20008</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E184" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="F184" t="s">
+        <v>386</v>
+      </c>
+      <c r="G184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A185" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B185" s="2">
+        <v>20009</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E185" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="F185" t="s">
+        <v>388</v>
+      </c>
+      <c r="G185" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A186" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B186" s="2">
+        <v>20010</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E186" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="F186" t="s">
+        <v>390</v>
+      </c>
+      <c r="G186" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A187" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B187" s="2">
+        <v>20011</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E187" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="F187" t="s">
+        <v>392</v>
+      </c>
+      <c r="G187" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H187">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A188" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B188" s="2">
+        <v>20012</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E188" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="F188" t="s">
+        <v>394</v>
+      </c>
+      <c r="G188" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H188">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A189" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B189" s="2">
+        <v>20013</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E189" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="F189" t="s">
+        <v>396</v>
+      </c>
+      <c r="G189" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A190" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B190" s="2">
+        <v>20014</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E190" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="F190" t="s">
+        <v>398</v>
+      </c>
+      <c r="G190" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H190">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A191" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B191" s="2">
+        <v>20015</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E191" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="F191" t="s">
+        <v>400</v>
+      </c>
+      <c r="G191" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H191">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A192" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B192" s="2">
+        <v>20016</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E192" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="F192" t="s">
+        <v>402</v>
+      </c>
+      <c r="G192" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H192">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A193" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B193" s="2">
+        <v>20017</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E193" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="F193" t="s">
+        <v>404</v>
+      </c>
+      <c r="G193" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H193">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A194" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B194" s="2">
+        <v>20018</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E194" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="F194" t="s">
+        <v>406</v>
+      </c>
+      <c r="G194" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H194">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A195" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B195" s="2">
+        <v>20019</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E195" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="F195" t="s">
+        <v>408</v>
+      </c>
+      <c r="G195" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H195">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A196" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B196" s="2">
+        <v>20020</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E196" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="F196" t="s">
+        <v>410</v>
+      </c>
+      <c r="G196" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H196">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A197" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B197" s="2">
+        <v>20021</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E197" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="F197" t="s">
+        <v>412</v>
+      </c>
+      <c r="G197" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A198" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B198" s="2">
+        <v>20022</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E198" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="F198" t="s">
+        <v>414</v>
+      </c>
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A199" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B199" s="2">
+        <v>20023</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E199" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="F199" t="s">
+        <v>416</v>
+      </c>
+      <c r="G199" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A200" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B200" s="2">
+        <v>20024</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E200" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="F200" t="s">
+        <v>418</v>
+      </c>
+      <c r="G200" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H200">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A201" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B201" s="2">
+        <v>20025</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E201" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="F201" t="s">
+        <v>420</v>
+      </c>
+      <c r="G201" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H201">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A202" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B202" s="2">
+        <v>20026</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E202" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="F202" t="s">
+        <v>422</v>
+      </c>
+      <c r="G202" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H202">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A203" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B203" s="2">
+        <v>20027</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E203" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F203" t="s">
+        <v>424</v>
+      </c>
+      <c r="G203" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A204" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B204" s="2">
+        <v>20028</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E204" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="F204" t="s">
+        <v>426</v>
+      </c>
+      <c r="G204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A205" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B205" s="2">
+        <v>20029</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="E205" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="G205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A206" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B206" s="2">
+        <v>20030</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="E206" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="F206" t="s">
+        <v>428</v>
+      </c>
+      <c r="G206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A207" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B207" s="2">
+        <v>20031</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="E207" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="F207" t="s">
+        <v>428</v>
+      </c>
+      <c r="G207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A208" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B208" s="2">
+        <v>20032</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="E208" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="F208" t="s">
+        <v>428</v>
+      </c>
+      <c r="G208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A209" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B209" s="2">
+        <v>20033</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="E209" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="F209" t="s">
+        <v>428</v>
+      </c>
+      <c r="G209" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H209">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A210" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B210" s="2">
+        <v>20034</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="E210" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="F210" t="s">
+        <v>428</v>
+      </c>
+      <c r="G210" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A211" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B211" s="2">
+        <v>20035</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="E211" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="F211" t="s">
+        <v>428</v>
+      </c>
+      <c r="G211" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A212" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B212" s="2">
+        <v>20036</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="E212" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="F212" t="s">
+        <v>428</v>
+      </c>
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A213" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B213" s="2">
+        <v>20037</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E213" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="F213" t="s">
+        <v>437</v>
+      </c>
+      <c r="G213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A214" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B214" s="2">
+        <v>10001</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E214" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="F214" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="G214" s="11">
+        <v>1</v>
+      </c>
+      <c r="H214">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A215" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B215" s="2">
+        <v>10002</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E215" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="F215" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="G215" s="11">
+        <v>1</v>
+      </c>
+      <c r="H215">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A216" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B216" s="2">
+        <v>10003</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E216" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="F216" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="G216" s="11">
+        <v>1</v>
+      </c>
+      <c r="H216">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A217" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B217" s="2">
+        <v>10004</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E217" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="F217" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="G217" s="11">
+        <v>1</v>
+      </c>
+      <c r="H217">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A218" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B218" s="2">
+        <v>10005</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E218" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="F218" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="G218" s="11">
+        <v>1</v>
+      </c>
+      <c r="H218">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A219" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B219" s="2">
+        <v>10006</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E219" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="F219" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="G219" s="11">
+        <v>1</v>
+      </c>
+      <c r="H219">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A220" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B220" s="2">
+        <v>10007</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E220" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="F220" s="20" t="s">
+        <v>453</v>
+      </c>
+      <c r="G220" s="11">
+        <v>1</v>
+      </c>
+      <c r="H220">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A221" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B221" s="2">
+        <v>10008</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E221" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="F221" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="G221" s="11">
+        <v>1</v>
+      </c>
+      <c r="H221">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A222" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B222" s="11">
+        <v>30001</v>
+      </c>
+      <c r="C222" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D222" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E222" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="F222" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="G222" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A223" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B223" s="11">
+        <v>30002</v>
+      </c>
+      <c r="C223" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D223" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E223" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="F223" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="G223" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A224" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B224" s="11">
+        <v>30003</v>
+      </c>
+      <c r="C224" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D224" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E224" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="F224" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="G224" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A225" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B225" s="11">
+        <v>30004</v>
+      </c>
+      <c r="C225" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D225" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E225" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F225" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="G225" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A226" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B226" s="11">
+        <v>30005</v>
+      </c>
+      <c r="C226" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D226" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E226" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="F226" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="G226" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H226">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A227" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B227" s="11">
+        <v>30006</v>
+      </c>
+      <c r="C227" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D227" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E227" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="F227" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="G227" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
